--- a/ESPN sports website/IPL/Gujarat Titans/Matthew Wade.xlsx
+++ b/ESPN sports website/IPL/Gujarat Titans/Matthew Wade.xlsx
@@ -445,31 +445,31 @@
         <v>Matthew Wade</v>
       </c>
       <c r="C2" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="str">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="str">
         <v>2</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>133.33</v>
+        <v>123.07</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I2" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>May 15, 2022</v>
+        <v>May 19, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
+        <v>RCB won by 8 wickets (with 8 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Matthew Wade</v>
       </c>
       <c r="C3" t="str">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>116.66</v>
+        <v>133.33</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Kolkata</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 24, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
+        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Matthew Wade</v>
       </c>
       <c r="C4" t="str">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D4" t="str">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4" t="str">
+        <v>6</v>
+      </c>
+      <c r="F4" t="str">
         <v>0</v>
       </c>
-      <c r="F4" t="str">
-        <v>1</v>
-      </c>
       <c r="G4" t="str">
-        <v>80.00</v>
+        <v>116.66</v>
       </c>
       <c r="H4" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I4" t="str">
-        <v>Ahmedabad</v>
+        <v>Kolkata</v>
       </c>
       <c r="J4" t="str">
-        <v>May 29, 2022</v>
+        <v>May 24, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
+        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Matthew Wade</v>
       </c>
       <c r="C5" t="str">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" t="str">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" t="str">
         <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>123.07</v>
+        <v>142.85</v>
       </c>
       <c r="H5" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>May 19, 2022</v>
+        <v>May 10, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>RCB won by 8 wickets (with 8 balls remaining)</v>
+        <v>Titans won by 62 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Matthew Wade</v>
       </c>
       <c r="C6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D6" t="str">
         <v>10</v>
       </c>
-      <c r="D6" t="str">
-        <v>7</v>
-      </c>
       <c r="E6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>142.85</v>
+        <v>80.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J6" t="str">
-        <v>May 10, 2022</v>
+        <v>May 29, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Titans won by 62 runs</v>
+        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
   </sheetData>
